--- a/Books/Processes-Chart.xlsx
+++ b/Books/Processes-Chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kiran\Ebooks\PM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kiran\docs\others\DB\Dropbox\Docs\Kiran\Git\PMI\PMI\Books\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2316" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="301">
   <si>
     <t>Process</t>
   </si>
@@ -531,21 +531,6 @@
     <t>Total Process</t>
   </si>
   <si>
-    <t>Develop Project Charter</t>
-  </si>
-  <si>
-    <t>Develop Project Management Plan</t>
-  </si>
-  <si>
-    <t>Direct and Manage Project Work</t>
-  </si>
-  <si>
-    <t>Perform Integrated Change Control</t>
-  </si>
-  <si>
-    <t>Monitor and Control Project Work</t>
-  </si>
-  <si>
     <t>Input</t>
   </si>
   <si>
@@ -553,9 +538,6 @@
   </si>
   <si>
     <t>Output</t>
-  </si>
-  <si>
-    <t>Close Project or Phase</t>
   </si>
   <si>
     <t>PF#</t>
@@ -572,10 +554,6 @@
   </si>
   <si>
     <t>Ellaboration</t>
-  </si>
-  <si>
-    <t>This is the process of developing a document that formally authorizes the existence of a
-project and provides the project manager with the authority to apply organizational resources to project activities.</t>
   </si>
   <si>
     <t>Definition</t>
@@ -806,16 +784,7 @@
 - Prioritize the work on the project </t>
   </si>
   <si>
-    <t>This is the process of defining, preparing, and coordinating all subsidiary plans
-and integrating them into a comprehensive project management plan. The key benefit of this process is a central
-document that defines the basis of all project work.</t>
-  </si>
-  <si>
     <t>Knowledge Area</t>
-  </si>
-  <si>
-    <t>This is the process of leading and performing the work defined in the project
-management plan and implementing approved changes to achieve the project’s objectives.</t>
   </si>
   <si>
     <r>
@@ -1014,12 +983,580 @@
   <si>
     <t xml:space="preserve">This is part of the environmental factors, provides access to tools, such as a scheduling tool, a work authorization system, a configuration management system, an information collection and distribution system, or interfaces to other online automated systems. </t>
   </si>
+  <si>
+    <t>Project management plan form the basis for controlling the project</t>
+  </si>
+  <si>
+    <t>The schedule forecasts are derived from progress against the schedule baseline and computed time estimate to complete (ETC). This is typically expressed in terms of schedule variance (SV) and schedule performance index (SPI).</t>
+  </si>
+  <si>
+    <t>The cost forecasts are derived from progress against the cost baseline and computed
+estimates to complete (ETC). This is typically expressed in terms of cost variance (CV) and cost performance index (CPI). This is typically expressed in terms of cost variance (CV) and cost performance index (CPI).</t>
+  </si>
+  <si>
+    <t>Approved changes that result from the Perform Integrated Change Control process
+require validation to ensure that the change was appropriately implemented</t>
+  </si>
+  <si>
+    <t>Work performance information is circulated through communication processes. Examples of performance information are status of deliverables, implementation status for change requests, and forecasted estimates to complete.</t>
+  </si>
+  <si>
+    <t>Factors include,
+- Governmental or industry standards, - Organization work authorization systems, - Stakeholder risk tolerances, - Project management information system</t>
+  </si>
+  <si>
+    <t>include,
+- Organizational communication requirements, - Financial controls procedures
+- Issue and defect management procedures, - Change control procedures
+- Risk control procedures, - Process measurement database, - Lessons learned</t>
+  </si>
+  <si>
+    <t>Used by the project management team to interpret the information provided by the monitor and control processes.</t>
+  </si>
+  <si>
+    <t>Are applied in project management to forecast potential outcomes. Examples of analytical techniques are:  Regression analysis, Grouping methods, Causal analysis, Root cause analysis, Forecasting methods, Failure mode and effect analysis (FMEA), Fault tree analysis (FTA), Reserve analysis, Trend analysis, Earned value management, and  Variance analysis.</t>
+  </si>
+  <si>
+    <t>Provides access to automated tools, such as scheduling, cost, and resourcing tools, performance indicators, databases, project records, and financials used during the Monitor and Control Project Work process.</t>
+  </si>
+  <si>
+    <t>Meetings may be face-to-face, virtual, formal, or informal. They may include
+project team members, stakeholders, and others involved in or affected by the project</t>
+  </si>
+  <si>
+    <t>Project mgt plan updates</t>
+  </si>
+  <si>
+    <t>This is the document that describes how the project will be executed, monitored, and controlled. It integrates and consolidates all of the subsidiary plans and baselines from the planning processes</t>
+  </si>
+  <si>
+    <t>Includes: Change control procedures, including the steps by which official organization standards, policies, plans, and other project documents will be modified, and how any changes will be approved, validated, and implemented;</t>
+  </si>
+  <si>
+    <t>Stakeholders may be asked to provide their expertise and may be asked to sit on the change control board (CCB). Stakeholder includes Consultants, Stakeholders, including customers or sponsors,Professional and technical associations, Industry groups, Subject matter experts (SMEs), PMOs</t>
+  </si>
+  <si>
+    <t>Change control board (CCB) is responsible for meeting and reviewing the change requests and approving, rejecting, or other disposition of those changes.</t>
+  </si>
+  <si>
+    <t>Tools are used to manage the change requests and the resulting decisions. Additional considerations should be made for communication to assist the CCB members in their duties as well as distribute the decisions to the appropriate stakeholders.</t>
+  </si>
+  <si>
+    <t>A change log is used to document changes that occur during a project. These changes and their impact to the project in terms of time, cost, and risk, are communicated to the appropriate stakeholders. Rejected change requests are also captured in the change log.</t>
+  </si>
+  <si>
+    <t>The project management plan becomes the agreement between the project
+manager and project sponsor, defining what constitutes project completion.</t>
+  </si>
+  <si>
+    <t>Accepted deliverables may include approved product specifications, delivery
+receipts, and work performance documents. Partial or interim deliverables may also be included for phased or cancelled projects.</t>
+  </si>
+  <si>
+    <t>Include, Project or phase closure guidelines or requirements, Historical information and lessons learned knowledge base</t>
+  </si>
+  <si>
+    <t>These experts ensure the project or phase closure is performed to the appropriate standards.  Sources includes,  Other project managers, PMO, Professional and technical associations.</t>
+  </si>
+  <si>
+    <t>Meetings may be face-to-face, virtual, formal, or informal. This may include project
+team members and other stakeholders, involved in or affected by the project. Types of meetings include, but are not limited to lessons learned, closeout, user group, and review meetings.</t>
+  </si>
+  <si>
+    <t>This output refers to the transition of the final product, service, or result that the project was authorized to produce (or in the case of phase closure, the intermediate product, service, or result of that phase).</t>
+  </si>
+  <si>
+    <t>The organizational process assets that are updated include, Project files, Project or phase closure documents, Historical information</t>
+  </si>
+  <si>
+    <t>Analytical techniques used in project closeout are: Regression analysis, and Trend analysis.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This is the process of developing a document that formally authorizes the existence of a
+project and provides the project manager with the authority to apply organizational resources to project activities.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Key benefit:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Well-defined project start and project boundaries, creation of a formal record of
+the project, and a direct way for senior management to formally accept and commit to the project.</t>
+    </r>
+  </si>
+  <si>
+    <t>Develop Project Charter
+(P66)</t>
+  </si>
+  <si>
+    <t>4.1.1.1
+(P68)</t>
+  </si>
+  <si>
+    <t>4.1.1.2
+(P69)</t>
+  </si>
+  <si>
+    <t>4.1.1.3
+(P70)</t>
+  </si>
+  <si>
+    <t>4.1.1.4
+(P70)</t>
+  </si>
+  <si>
+    <t>4.1.1.5
+(P70)</t>
+  </si>
+  <si>
+    <t>4.1.2.1
+(P71)</t>
+  </si>
+  <si>
+    <t>4.1.2.2
+(P71)</t>
+  </si>
+  <si>
+    <t>4.1.3.1
+(P71)</t>
+  </si>
+  <si>
+    <t>Develop Project Management Plan
+(P72)</t>
+  </si>
+  <si>
+    <t>4.2.1.1
+(P74)</t>
+  </si>
+  <si>
+    <t>4.2.1.2
+(P74)</t>
+  </si>
+  <si>
+    <t>4.2.1.3
+(P74)</t>
+  </si>
+  <si>
+    <t>4.2.1.4
+(P75)</t>
+  </si>
+  <si>
+    <t>4.2.2.1
+(P76)</t>
+  </si>
+  <si>
+    <t>4.2.2.2
+(P76)</t>
+  </si>
+  <si>
+    <t>4.2.3.1
+(P76)</t>
+  </si>
+  <si>
+    <t>Direct and Manage Project Work
+(P79)</t>
+  </si>
+  <si>
+    <t>4.3.1.1
+(P82)</t>
+  </si>
+  <si>
+    <t>4.3.1.2
+(P82)</t>
+  </si>
+  <si>
+    <t>4.3.1.3
+(P82)</t>
+  </si>
+  <si>
+    <t>4.3.1.4
+(P83)</t>
+  </si>
+  <si>
+    <t>4.3.2.1
+(P83)</t>
+  </si>
+  <si>
+    <t>4.3.2.1
+(P84)</t>
+  </si>
+  <si>
+    <t>4.3.3.1
+(P84)</t>
+  </si>
+  <si>
+    <t>4.3.3.2
+(P85)</t>
+  </si>
+  <si>
+    <t>4.3.3.3
+(P85)</t>
+  </si>
+  <si>
+    <t>4.3.3.4 (P85)</t>
+  </si>
+  <si>
+    <t>4.3.3.5
+(P86)</t>
+  </si>
+  <si>
+    <t>Monitor and Control Project Work
+(P86)</t>
+  </si>
+  <si>
+    <t>4.4.1.1
+(P88)</t>
+  </si>
+  <si>
+    <t>4.4.1.2
+(P89)</t>
+  </si>
+  <si>
+    <t>4.4.1.3
+(P89)</t>
+  </si>
+  <si>
+    <t>4.4.1.4
+(P90)</t>
+  </si>
+  <si>
+    <t>4.4.1.5
+(P90)</t>
+  </si>
+  <si>
+    <t>4.4.1.6
+(P90)</t>
+  </si>
+  <si>
+    <t>4.4.1.7
+(P91)</t>
+  </si>
+  <si>
+    <t>4.4.2.1
+(P91)</t>
+  </si>
+  <si>
+    <t>4.4.2.2 
+(P91)</t>
+  </si>
+  <si>
+    <t>4.4.2.3
+(P92)</t>
+  </si>
+  <si>
+    <t>4.4.2.4
+(P92)</t>
+  </si>
+  <si>
+    <t>4.4.3.1
+(P92)</t>
+  </si>
+  <si>
+    <t>4.4.3.2
+(P93)</t>
+  </si>
+  <si>
+    <t>4.4.3.3 (P93)</t>
+  </si>
+  <si>
+    <t>4.4.3.4
+(P94)</t>
+  </si>
+  <si>
+    <t>Perform Integrated Change Control
+(P94)</t>
+  </si>
+  <si>
+    <t>4.5.1.1
+(P97)</t>
+  </si>
+  <si>
+    <t>4.5.1.2
+(P97)</t>
+  </si>
+  <si>
+    <t>4.5.1.3
+(P97)</t>
+  </si>
+  <si>
+    <t>4.5.1.4
+(P98)</t>
+  </si>
+  <si>
+    <t>4.5.1.5
+(P98)</t>
+  </si>
+  <si>
+    <t>4.5.2.1
+(P98)</t>
+  </si>
+  <si>
+    <t>4.5.2.2
+(P99)</t>
+  </si>
+  <si>
+    <t>4.5.2.3
+(P99)</t>
+  </si>
+  <si>
+    <t>4.5.3.1
+(P99)</t>
+  </si>
+  <si>
+    <t>4.5.3.2
+(P100)</t>
+  </si>
+  <si>
+    <t>4.5.3.3 (P100)</t>
+  </si>
+  <si>
+    <t>4.5.3.4 
+(P100)</t>
+  </si>
+  <si>
+    <t>Close Project or Phase
+(P100)</t>
+  </si>
+  <si>
+    <t>4.6.1.1
+(P102)</t>
+  </si>
+  <si>
+    <t>4.6.1.2
+(P102)</t>
+  </si>
+  <si>
+    <t>4.6.1.3
+(P102)</t>
+  </si>
+  <si>
+    <t>4.6.2.1
+(P102)</t>
+  </si>
+  <si>
+    <t>4.6.2.2
+(P103)</t>
+  </si>
+  <si>
+    <t>4.6.2.3
+(P103)</t>
+  </si>
+  <si>
+    <t>4.6.3.1
+(P103)</t>
+  </si>
+  <si>
+    <t>4.6.3.2
+(P103)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This is the process of defining, preparing, and coordinating all subsidiary plans
+and integrating them into a comprehensive project management plan. The key benefit of this process is a central
+document that defines the basis of all project work.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Key benefit:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Central document that defines the basis of all project work.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This is the process of leading and performing the work defined in the project
+management plan and implementing approved changes to achieve the project’s objectives.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Key benefit:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Provides overall management of the project work.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Monitoring is an aspect of project management performed throughout the project. 
+Continuous monitoring gives the project management team insight into the health of the project and identifies any areas that may require special attention.
+Monitoring includes:
+- Comparing actual project performance
+- Assessing performance
+- Identifying new risks
+- Maintaining an accurate, timely information
+- Monitoring implementation
+- Providing appropriate reporting on project progress
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Key benefit:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Allows stakeholders to understand the current state of the project, the steps taken, and budget, schedule, and scope forecasts.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This is the process of reviewing all change requests; approving changes and managing changes to deliverables, organizational process assets, project documents, and the project management plan; and communicating their disposition. 
+The Perform Integrated Change Control process is conducted from project inception through completion and is the ultimate responsibility of the project manager.
+process includes a change
+control board (CCB), which is a formally chartered group responsible for reviewing, evaluating, approving, delaying,
+or rejecting changes to the project, and for recording and communicating such decisions.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Key benefit:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Allows for documented changes within the project to be considered in an integrated fashion while reducing project risk, which often arises from changes made without consideration to the overall project
+objectives or plans.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Is the process of finalizing all activities across all of the Project Management Process
+Groups to formally complete the project or phase.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Key benefit: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Provides lessons learned, the formal ending of project work, and the release of organization resources to pursue new endeavors.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1046,6 +1583,15 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1276,7 +1822,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1316,21 +1862,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1339,27 +1870,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1403,15 +1913,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1420,36 +1921,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1463,38 +1934,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1524,6 +1965,24 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1532,14 +1991,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1549,6 +2008,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1869,9 +2367,7 @@
   </sheetPr>
   <dimension ref="A2:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1881,7 +2377,7 @@
     <col min="4" max="4" width="17.140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
     <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="47" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="32" customWidth="1"/>
     <col min="8" max="8" width="28.42578125" style="7" customWidth="1"/>
     <col min="9" max="9" width="77.28515625" customWidth="1"/>
   </cols>
@@ -1894,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>9</v>
@@ -1917,1231 +2413,1362 @@
       <c r="B4" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="36" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="18">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="73" t="s">
+        <v>230</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="20">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="73" t="s">
+        <v>231</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="H4" s="63" t="s">
-        <v>174</v>
-      </c>
-      <c r="I4" s="49" t="s">
+    </row>
+    <row r="7" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="20">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="73" t="s">
+        <v>232</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="20">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="73" t="s">
+        <v>233</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="20">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="73" t="s">
+        <v>234</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="20">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" s="74" t="s">
+        <v>235</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="20">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="74" t="s">
+        <v>236</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="40" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" s="30">
+    <row r="12" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="21">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D5" s="90" t="s">
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="75" t="s">
+        <v>237</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="49">
+        <v>4.2</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="F13" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="90" t="s">
-        <v>178</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="G5" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="I5" s="60" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="B6" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" s="32">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="I6" s="60" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B7" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="C7" s="32">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="I7" s="60" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="B8" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="C8" s="32">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="60" t="s">
-        <v>198</v>
-      </c>
-      <c r="I8" s="60" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="C9" s="32">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" s="60" t="s">
-        <v>197</v>
-      </c>
-      <c r="I9" s="60" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="B10" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="32">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="73" t="s">
-        <v>170</v>
-      </c>
-      <c r="G10" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="75" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" s="75" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="32">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="I11" s="75" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B12" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="33">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="76" t="s">
-        <v>171</v>
-      </c>
-      <c r="G12" s="76" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="78" t="s">
+      <c r="G13" s="73" t="s">
+        <v>239</v>
+      </c>
+      <c r="H13" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="I12" s="77" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="87">
-        <v>4.2</v>
-      </c>
-      <c r="D13" s="84" t="s">
-        <v>165</v>
-      </c>
-      <c r="E13" s="84" t="s">
-        <v>190</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="G13" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="I13" s="60" t="str">
+      <c r="I13" s="35" t="str">
         <f>I12</f>
         <v>The document issued by the project initiator or sponsor that formally authorizes the existence of a project and provides the project manager with the authority to apply organizational resources to
 project activities.</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="88">
+      <c r="C14" s="50">
         <v>4.2</v>
       </c>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="60" t="s">
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="73" t="s">
+        <v>240</v>
+      </c>
+      <c r="H14" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="I14" s="60" t="s">
-        <v>188</v>
+      <c r="I14" s="35" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="88">
+      <c r="C15" s="50">
         <v>4.2</v>
       </c>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" s="60" t="s">
-        <v>200</v>
-      </c>
-      <c r="I15" s="60" t="str">
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="73" t="s">
+        <v>241</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="I15" s="35" t="str">
         <f>I8</f>
         <v>Refers to conditions, not under the control of the project team, that influence, constrain, or direct the project. factors include"
 - Organizational culture, structure, and governance, Geographic distribution, Government or industry standards, Infrastructure, Existing human resources, Personnel administration, Company work authorization systems, Marketplace conditions, Stakeholder risk tolerances, Political climate, Organization’s established communications channels, Commercial databases, Project management information system</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="88">
+      <c r="C16" s="50">
         <v>4.2</v>
       </c>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="H16" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="I16" s="60" t="str">
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="73" t="s">
+        <v>242</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="I16" s="35" t="str">
         <f>I9</f>
         <v>OPA may be grouped into two categories: (1) processes and procedures, and (2) corporate knowledge base. OPA include plans, processes, policies, procedures, organization’s knowledge bases such as lessons learned and historical information</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="88">
+      <c r="C17" s="50">
         <v>4.2</v>
       </c>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="18" t="s">
-        <v>170</v>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="65" t="s">
+        <v>165</v>
       </c>
       <c r="G17" s="74" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" s="75" t="s">
+        <v>243</v>
+      </c>
+      <c r="H17" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="I17" s="75" t="s">
-        <v>189</v>
+      <c r="I17" s="40" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="88">
+      <c r="C18" s="50">
         <v>4.2</v>
       </c>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="19"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="67"/>
       <c r="G18" s="74" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18" s="75" t="s">
+        <v>244</v>
+      </c>
+      <c r="H18" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="I18" s="75" t="str">
+      <c r="I18" s="40" t="str">
         <f>I11</f>
         <v>FT guide the development of the project charter. Brainstorming, conflict resolution, problem solving, and meeting management are examples of key techniques used by facilitators to help teams and individuals accomplish project activities.</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="285" x14ac:dyDescent="0.25">
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="89">
+      <c r="C19" s="51">
         <v>4.2</v>
       </c>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="76" t="s">
-        <v>171</v>
-      </c>
-      <c r="G19" s="79" t="s">
-        <v>98</v>
-      </c>
-      <c r="H19" s="80" t="s">
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="H19" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="I19" s="80" t="s">
+      <c r="I19" s="45" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="46">
+        <v>4.3</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="F20" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" s="73" t="s">
+        <v>247</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20" s="35" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="47">
+        <v>4.3</v>
+      </c>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="73" t="s">
+        <v>248</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" s="35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="B22" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="47">
+        <v>4.3</v>
+      </c>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="73" t="s">
+        <v>249</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="I22" s="35" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B23" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="47">
+        <v>4.3</v>
+      </c>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="73" t="s">
+        <v>250</v>
+      </c>
+      <c r="H23" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" s="35" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="81" t="s">
+    <row r="24" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B24" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="81">
+      <c r="C24" s="47">
         <v>4.3</v>
       </c>
-      <c r="D20" s="84" t="s">
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G24" s="74" t="s">
+        <v>251</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="I24" s="40" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B25" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="47">
+        <v>4.3</v>
+      </c>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="74" t="s">
+        <v>252</v>
+      </c>
+      <c r="H25" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" s="40" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B26" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="47">
+        <v>4.3</v>
+      </c>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="74" t="s">
+        <v>252</v>
+      </c>
+      <c r="H26" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" s="40" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="47">
+        <v>4.3</v>
+      </c>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="E20" s="84" t="s">
-        <v>192</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="G20" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="H20" s="60" t="s">
+      <c r="G27" s="76" t="s">
+        <v>253</v>
+      </c>
+      <c r="H27" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="I27" s="45" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B28" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="47">
+        <v>4.3</v>
+      </c>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="76" t="s">
+        <v>254</v>
+      </c>
+      <c r="H28" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="I28" s="45" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="B29" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="47">
+        <v>4.3</v>
+      </c>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="76" t="s">
+        <v>255</v>
+      </c>
+      <c r="H29" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="I29" s="45" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="47">
+        <v>4.3</v>
+      </c>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="H30" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="I30" s="45" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="48">
+        <v>4.3</v>
+      </c>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="76" t="s">
+        <v>257</v>
+      </c>
+      <c r="H31" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="I31" s="45" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B32" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="25">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="E32" s="55" t="s">
+        <v>298</v>
+      </c>
+      <c r="F32" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" s="73" t="s">
+        <v>259</v>
+      </c>
+      <c r="H32" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="I20" s="60" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B21" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="82">
-        <v>4.3</v>
-      </c>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="H21" s="60" t="s">
+      <c r="I32" s="35" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B33" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" s="28">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="73" t="s">
+        <v>260</v>
+      </c>
+      <c r="H33" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="I33" s="35" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" s="28">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="H34" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="I34" s="35" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="28">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="73" t="s">
+        <v>262</v>
+      </c>
+      <c r="H35" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="I35" s="35" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B36" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="28">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="73" t="s">
+        <v>263</v>
+      </c>
+      <c r="H36" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="I36" s="35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B37" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="28">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="73" t="s">
+        <v>264</v>
+      </c>
+      <c r="H37" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I37" s="35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B38" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="28">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="73" t="s">
+        <v>265</v>
+      </c>
+      <c r="H38" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="I38" s="35" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="28">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="G39" s="74" t="s">
+        <v>266</v>
+      </c>
+      <c r="H39" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="I39" s="40" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B40" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="28">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="74" t="s">
+        <v>267</v>
+      </c>
+      <c r="H40" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="I40" s="40" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B41" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" s="28">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="74" t="s">
+        <v>268</v>
+      </c>
+      <c r="H41" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="I41" s="40" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" s="28">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="74" t="s">
+        <v>269</v>
+      </c>
+      <c r="H42" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="I42" s="40" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="B43" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" s="28">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="G43" s="76" t="s">
+        <v>270</v>
+      </c>
+      <c r="H43" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="I43" s="39" t="str">
+        <f>I29</f>
+        <v>A change request is a formal proposal to modify any document, deliverable, or baseline.Requests for a change may include:
+ - Corrective action - Realigns the performance as per project management plan.
+ - Preventive action - Ensures the future performance of the project work is aligned with the project management plan.
+ - Defect repair - Activity to modify a nonconforming product
+ - Updates - Changes to reflect modified or additional ideas or content.</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B44" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" s="28">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="76" t="s">
+        <v>271</v>
+      </c>
+      <c r="H44" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="I44" s="39" t="str">
+        <f>I28</f>
+        <v>These are the raw observations and measurements identified during activities being performed to carry out the project work. e.g. work completed, key performance indicators, technical performance measures</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45" s="28">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="H45" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="I45" s="39" t="str">
+        <f>I30</f>
+        <v>Elements of the project management plan that may be updated</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" s="30">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="76" t="s">
+        <v>273</v>
+      </c>
+      <c r="H46" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="I46" s="39" t="str">
+        <f>I31</f>
+        <v>Project documents that may be updated Requirements documentation, Project logs, Risk register and Stakeholder register</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B47" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" s="25">
+        <v>4.5</v>
+      </c>
+      <c r="D47" s="58" t="s">
+        <v>274</v>
+      </c>
+      <c r="E47" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="F47" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="G47" s="73" t="s">
+        <v>275</v>
+      </c>
+      <c r="H47" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="I47" s="35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B48" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="D48" s="59"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="73" t="s">
+        <v>276</v>
+      </c>
+      <c r="H48" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="I48" s="35" t="str">
+        <f>I44</f>
+        <v>These are the raw observations and measurements identified during activities being performed to carry out the project work. e.g. work completed, key performance indicators, technical performance measures</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="B49" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="D49" s="59"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="H49" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="I49" s="35" t="str">
+        <f>I43</f>
+        <v>A change request is a formal proposal to modify any document, deliverable, or baseline.Requests for a change may include:
+ - Corrective action - Realigns the performance as per project management plan.
+ - Preventive action - Ensures the future performance of the project work is aligned with the project management plan.
+ - Defect repair - Activity to modify a nonconforming product
+ - Updates - Changes to reflect modified or additional ideas or content.</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B50" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="D50" s="59"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="73" t="s">
+        <v>278</v>
+      </c>
+      <c r="H50" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I50" s="35" t="str">
+        <f>I37</f>
+        <v>Factors include,
+- Governmental or industry standards, - Organization work authorization systems, - Stakeholder risk tolerances, - Project management information system</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B51" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C51" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="D51" s="59"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="73" t="s">
+        <v>279</v>
+      </c>
+      <c r="H51" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="I51" s="35" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B52" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C52" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="D52" s="59"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="G52" s="74" t="s">
+        <v>280</v>
+      </c>
+      <c r="H52" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="I52" s="40" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="D53" s="59"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="74" t="s">
+        <v>281</v>
+      </c>
+      <c r="H53" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="I53" s="40" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="D54" s="59"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="74" t="s">
+        <v>282</v>
+      </c>
+      <c r="H54" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="I54" s="40" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B55" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="D55" s="59"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="G55" s="76" t="s">
+        <v>283</v>
+      </c>
+      <c r="H55" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="I21" s="60" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="B22" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="82">
-        <v>4.3</v>
-      </c>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="H22" s="60" t="s">
-        <v>200</v>
-      </c>
-      <c r="I22" s="60" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="B23" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="82">
-        <v>4.3</v>
-      </c>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="H23" s="60" t="s">
+      <c r="I55" s="45" t="str">
+        <f>I21</f>
+        <v>These are an output of the Perform Integrated Change Control process, and include those requests reviewed and approved for implementation by the change control board (CCB).</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B56" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="D56" s="59"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="76" t="s">
+        <v>284</v>
+      </c>
+      <c r="H56" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="I56" s="45" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="D57" s="59"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="H57" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="I57" s="45" t="str">
+        <f>I45</f>
+        <v>Elements of the project management plan that may be updated</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" s="30">
+        <v>4.5</v>
+      </c>
+      <c r="D58" s="60"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="76" t="s">
+        <v>286</v>
+      </c>
+      <c r="H58" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="I58" s="45" t="str">
+        <f>I46</f>
+        <v>Project documents that may be updated Requirements documentation, Project logs, Risk register and Stakeholder register</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B59" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="22">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D59" s="58" t="s">
+        <v>287</v>
+      </c>
+      <c r="E59" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="F59" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="G59" s="73" t="s">
+        <v>288</v>
+      </c>
+      <c r="H59" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="I59" s="35" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B60" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="23">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D60" s="59"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="73" t="s">
+        <v>289</v>
+      </c>
+      <c r="H60" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="I60" s="35" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B61" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="23">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D61" s="59"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="73" t="s">
+        <v>290</v>
+      </c>
+      <c r="H61" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="I23" s="60" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="B24" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="82">
-        <v>4.3</v>
-      </c>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="G24" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="H24" s="75" t="s">
+      <c r="I61" s="35" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B62" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="23">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D62" s="59"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="G62" s="74" t="s">
+        <v>291</v>
+      </c>
+      <c r="H62" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="I24" s="75" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B25" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="82">
-        <v>4.3</v>
-      </c>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="H25" s="75" t="s">
-        <v>105</v>
-      </c>
-      <c r="I25" s="75" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="B26" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="82">
-        <v>4.3</v>
-      </c>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="H26" s="75" t="s">
+      <c r="I62" s="40" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B63" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="23">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D63" s="59"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="74" t="s">
+        <v>292</v>
+      </c>
+      <c r="H63" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="I63" s="40" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B64" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="23">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D64" s="59"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="74" t="s">
+        <v>293</v>
+      </c>
+      <c r="H64" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="I26" s="75" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="82">
-        <v>4.3</v>
-      </c>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="G27" s="79" t="s">
-        <v>113</v>
-      </c>
-      <c r="H27" s="80" t="s">
-        <v>107</v>
-      </c>
-      <c r="I27" s="80" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B28" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="82">
-        <v>4.3</v>
-      </c>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="79" t="s">
-        <v>114</v>
-      </c>
-      <c r="H28" s="80" t="s">
-        <v>108</v>
-      </c>
-      <c r="I28" s="80" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="B29" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="82">
-        <v>4.3</v>
-      </c>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="79" t="s">
-        <v>115</v>
-      </c>
-      <c r="H29" s="80" t="s">
-        <v>109</v>
-      </c>
-      <c r="I29" s="80" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="82">
-        <v>4.3</v>
-      </c>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="79" t="s">
-        <v>116</v>
-      </c>
-      <c r="H30" s="80" t="s">
-        <v>110</v>
-      </c>
-      <c r="I30" s="80" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="83">
-        <v>4.3</v>
-      </c>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="79" t="s">
-        <v>117</v>
-      </c>
-      <c r="H31" s="80" t="s">
-        <v>111</v>
-      </c>
-      <c r="I31" s="80" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="C32" s="37">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D32" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="E32" s="44"/>
-      <c r="F32" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="G32" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="H32" s="67" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C33" s="40">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D33" s="85"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="H33" s="67" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C34" s="40">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D34" s="85"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="H34" s="67" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C35" s="40">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D35" s="85"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="H35" s="67" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C36" s="40">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D36" s="85"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="H36" s="67" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C37" s="40">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D37" s="85"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="H37" s="67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C38" s="40">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D38" s="85"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="H38" s="68" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C39" s="40">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D39" s="85"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="G39" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="H39" s="69" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C40" s="40">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D40" s="85"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="H40" s="64" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C41" s="40">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D41" s="85"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="H41" s="64" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C42" s="40">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D42" s="85"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="H42" s="65" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C43" s="40">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D43" s="85"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="G43" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="H43" s="70" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C44" s="40">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D44" s="85"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="H44" s="71" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C45" s="40">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D45" s="85"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="H45" s="71" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C46" s="42">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D46" s="86"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="H46" s="72" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C47" s="37">
-        <v>4.5</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="E47" s="44"/>
-      <c r="F47" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="G47" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="H47" s="66" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C48" s="40">
-        <v>4.5</v>
-      </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="H48" s="67" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C49" s="40">
-        <v>4.5</v>
-      </c>
-      <c r="D49" s="28"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="H49" s="67" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C50" s="40">
-        <v>4.5</v>
-      </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="H50" s="67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C51" s="40">
-        <v>4.5</v>
-      </c>
-      <c r="D51" s="28"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="H51" s="68" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C52" s="40">
-        <v>4.5</v>
-      </c>
-      <c r="D52" s="28"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="G52" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="H52" s="69" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C53" s="40">
-        <v>4.5</v>
-      </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="H53" s="64" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C54" s="40">
-        <v>4.5</v>
-      </c>
-      <c r="D54" s="28"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="H54" s="65" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C55" s="40">
-        <v>4.5</v>
-      </c>
-      <c r="D55" s="28"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="G55" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="H55" s="70" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C56" s="40">
-        <v>4.5</v>
-      </c>
-      <c r="D56" s="28"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="H56" s="71" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C57" s="40">
-        <v>4.5</v>
-      </c>
-      <c r="D57" s="28"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="57" t="s">
-        <v>150</v>
-      </c>
-      <c r="H57" s="71" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="C58" s="42">
-        <v>4.5</v>
-      </c>
-      <c r="D58" s="29"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="H58" s="72" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="38" t="s">
+      <c r="I64" s="40" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B65" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="34">
+      <c r="C65" s="23">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D59" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="E59" s="44"/>
-      <c r="F59" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="G59" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="H59" s="66" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="40" t="s">
+      <c r="D65" s="59"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="G65" s="76" t="s">
+        <v>294</v>
+      </c>
+      <c r="H65" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="I65" s="45" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B66" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="35">
+      <c r="C66" s="24">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D60" s="28"/>
-      <c r="E60" s="45"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="H60" s="67" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="35">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D61" s="28"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="H61" s="68" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="35">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="G62" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="H62" s="69" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="35">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D63" s="28"/>
-      <c r="E63" s="45"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="H63" s="64" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" s="35">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D64" s="28"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="H64" s="65" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B65" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" s="35">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D65" s="28"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="G65" s="56" t="s">
-        <v>161</v>
-      </c>
-      <c r="H65" s="70" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B66" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="36">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D66" s="29"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="H66" s="72" t="s">
+      <c r="D66" s="60"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="76" t="s">
+        <v>295</v>
+      </c>
+      <c r="H66" s="45" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66" s="45" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
-      <c r="D67" s="62"/>
+      <c r="D67" s="37"/>
       <c r="E67" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:H66"/>
-  <mergeCells count="24">
+  <mergeCells count="27">
+    <mergeCell ref="E59:E66"/>
     <mergeCell ref="F62:F64"/>
     <mergeCell ref="F65:F66"/>
     <mergeCell ref="D59:D66"/>
@@ -3166,6 +3793,8 @@
     <mergeCell ref="D13:D19"/>
     <mergeCell ref="F5:F9"/>
     <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E32:E46"/>
+    <mergeCell ref="E47:E58"/>
   </mergeCells>
   <pageMargins left="0.25" right="0" top="0.25" bottom="0" header="0.1" footer="0"/>
   <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -3173,9 +3802,12 @@
     <oddHeader>&amp;LKiran Vidhate
 &amp;RPMBok - Process Chart</oddHeader>
   </headerFooter>
-  <rowBreaks count="2" manualBreakCount="2">
+  <rowBreaks count="5" manualBreakCount="5">
     <brk id="12" max="16383" man="1"/>
     <brk id="19" max="16383" man="1"/>
+    <brk id="31" max="8" man="1"/>
+    <brk id="46" max="16383" man="1"/>
+    <brk id="58" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>

--- a/Books/Processes-Chart.xlsx
+++ b/Books/Processes-Chart.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="2055" tabRatio="959"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="2055" tabRatio="959" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="4. Project Integration Mgt" sheetId="1" r:id="rId1"/>
-    <sheet name="Project Scope Mgt" sheetId="2" r:id="rId2"/>
-    <sheet name="Project Time Mgt" sheetId="3" r:id="rId3"/>
-    <sheet name="Project Cost Mgt" sheetId="4" r:id="rId4"/>
-    <sheet name="Project Quality Mgt" sheetId="5" r:id="rId5"/>
-    <sheet name="Project Human Resource Mgt" sheetId="6" r:id="rId6"/>
-    <sheet name="Project Communications Mgt" sheetId="7" r:id="rId7"/>
-    <sheet name="Project Risk Mgt" sheetId="8" r:id="rId8"/>
-    <sheet name="Project Procurement Mgt" sheetId="9" r:id="rId9"/>
-    <sheet name="Project Stakeholder Mgt" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId2"/>
+    <sheet name="5. Project Scope Mgt" sheetId="2" r:id="rId3"/>
+    <sheet name="Project Time Mgt" sheetId="3" r:id="rId4"/>
+    <sheet name="Project Cost Mgt" sheetId="4" r:id="rId5"/>
+    <sheet name="Project Quality Mgt" sheetId="5" r:id="rId6"/>
+    <sheet name="Project Human Resource Mgt" sheetId="6" r:id="rId7"/>
+    <sheet name="Project Communications Mgt" sheetId="7" r:id="rId8"/>
+    <sheet name="Project Risk Mgt" sheetId="8" r:id="rId9"/>
+    <sheet name="Project Procurement Mgt" sheetId="9" r:id="rId10"/>
+    <sheet name="Project Stakeholder Mgt" sheetId="10" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4. Project Integration Mgt'!$B$4:$H$66</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2579" uniqueCount="380">
   <si>
     <t>Process</t>
   </si>
@@ -1551,6 +1552,441 @@
       <t>Provides lessons learned, the formal ending of project work, and the release of organization resources to pursue new endeavors.</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Key benefit:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Key benefit:
+</t>
+  </si>
+  <si>
+    <t>Validate Scope</t>
+  </si>
+  <si>
+    <t>6  [ I 1 ] [ P 1 ] [E 1 ] [ M&amp;C 1 ] [ C 1 ]</t>
+  </si>
+  <si>
+    <t>6  [ I 0 ] [ P 4 ] [E 0 ] [ M&amp;C 2 ] [ C 0 ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Is the process of creating a scope management plan that documents how the project scope will be defined, validated, and controlled.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Key benefit:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It provides guidance and direction on how scope will be managed throughout the project.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Plan Scope Management
+(P107)</t>
+  </si>
+  <si>
+    <t>5.1.1.1
+(P)</t>
+  </si>
+  <si>
+    <t>5.1.1.2
+(P)</t>
+  </si>
+  <si>
+    <t>5.1.1.3
+(P)</t>
+  </si>
+  <si>
+    <t>5.1.1.4
+(P)</t>
+  </si>
+  <si>
+    <t>5.1.2.2
+(P)</t>
+  </si>
+  <si>
+    <t>5.1.2.1
+(P)</t>
+  </si>
+  <si>
+    <t>Scope management plan</t>
+  </si>
+  <si>
+    <t>Requirements
+management plan</t>
+  </si>
+  <si>
+    <t>5.1.3.2
+(P)</t>
+  </si>
+  <si>
+    <t>5.1.3.1
+(P)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Process of determining, documenting, and managing stakeholder needs and
+requirements to meet project objectives.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Key benefit:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+It provides the basis for defining and managing the project scope including product scope.</t>
+    </r>
+  </si>
+  <si>
+    <t>Collect Requirements
+(P110)</t>
+  </si>
+  <si>
+    <t>5.2.1.1
+(P)</t>
+  </si>
+  <si>
+    <t>5.2.1.2
+(P)</t>
+  </si>
+  <si>
+    <t>5.2.1.3
+(P)</t>
+  </si>
+  <si>
+    <t>5.2.1.4
+(P)</t>
+  </si>
+  <si>
+    <t>5.2.1.5
+(P)</t>
+  </si>
+  <si>
+    <t>Stakeholder management
+plan</t>
+  </si>
+  <si>
+    <t>Stakeholder register</t>
+  </si>
+  <si>
+    <t>Interviews</t>
+  </si>
+  <si>
+    <t>Focus groups</t>
+  </si>
+  <si>
+    <t>Facilitated workshops</t>
+  </si>
+  <si>
+    <t>Group creativity techniques</t>
+  </si>
+  <si>
+    <t>Group decision-making techniques</t>
+  </si>
+  <si>
+    <t>Questionnaires and surveys</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Prototypes</t>
+  </si>
+  <si>
+    <t>Benchmarking</t>
+  </si>
+  <si>
+    <t>Context diagrams</t>
+  </si>
+  <si>
+    <t>Document analysis</t>
+  </si>
+  <si>
+    <t>5.2.2.1
+(P)</t>
+  </si>
+  <si>
+    <t>5.2.2.2
+(P)</t>
+  </si>
+  <si>
+    <t>5.2.2.3
+(P)</t>
+  </si>
+  <si>
+    <t>5.2.2.4
+(P)</t>
+  </si>
+  <si>
+    <t>5.2.2.5
+(P)</t>
+  </si>
+  <si>
+    <t>5.2.2.6
+(P)</t>
+  </si>
+  <si>
+    <t>5.2.2.7
+(P)</t>
+  </si>
+  <si>
+    <t>5.2.2.8
+(P)</t>
+  </si>
+  <si>
+    <t>5.2.2.9
+(P)</t>
+  </si>
+  <si>
+    <t>5.2.2.10
+(P)</t>
+  </si>
+  <si>
+    <t>5.2.2.11
+(P)</t>
+  </si>
+  <si>
+    <t>5.2.3.1
+(P)</t>
+  </si>
+  <si>
+    <t>5.2.3.2
+(P)</t>
+  </si>
+  <si>
+    <t>Requirements traceability
+matrix</t>
+  </si>
+  <si>
+    <t>Requirements
+documentation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Process of developing a detailed description of the project and product
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Key benefit:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+It describes the project, service, or result boundaries by defining which of the requirements collected will be included in and excluded from the project scope.</t>
+    </r>
+  </si>
+  <si>
+    <t>Requirements documentation</t>
+  </si>
+  <si>
+    <t>5.3.1.1
+(P)</t>
+  </si>
+  <si>
+    <t>5.3.1.2
+(P)</t>
+  </si>
+  <si>
+    <t>5.3.1.3
+(P)</t>
+  </si>
+  <si>
+    <t>5.3.1.4
+(P)</t>
+  </si>
+  <si>
+    <t>Product analysis</t>
+  </si>
+  <si>
+    <t>Alternatives generation</t>
+  </si>
+  <si>
+    <t>5.3.2.1
+(P)</t>
+  </si>
+  <si>
+    <t>5.3.2.2
+(P)</t>
+  </si>
+  <si>
+    <t>5.3.2.3
+(P)</t>
+  </si>
+  <si>
+    <t>5.3.2.4
+(P)</t>
+  </si>
+  <si>
+    <t>Project scope statement</t>
+  </si>
+  <si>
+    <t>Project documents
+updates</t>
+  </si>
+  <si>
+    <t>5.3.3.1
+(P)</t>
+  </si>
+  <si>
+    <t>5.3.3.2
+(P)</t>
+  </si>
+  <si>
+    <t>Define Scope
+(P120)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Process of subdividing project deliverables and project work into smaller, more manageable components.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Key benefit:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+It provides a structured vision of what has to be delivered.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Create WBS
+(P125)</t>
+  </si>
+  <si>
+    <t>5.4.1.1
+(P)</t>
+  </si>
+  <si>
+    <t>5.4.1.2
+(P)</t>
+  </si>
+  <si>
+    <t>5.4.1.3
+(P)</t>
+  </si>
+  <si>
+    <t>5.4.1.4
+(P)</t>
+  </si>
+  <si>
+    <t>5.4.1.5
+(P)</t>
+  </si>
+  <si>
+    <t>Decomposition</t>
+  </si>
+  <si>
+    <t>5.4.2.1
+(P)</t>
+  </si>
+  <si>
+    <t>5.4.2.2
+(P)</t>
+  </si>
 </sst>
 </file>
 
@@ -1597,7 +2033,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1640,8 +2076,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1733,30 +2181,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1801,15 +2229,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1822,7 +2241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1841,25 +2260,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1868,28 +2287,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1907,31 +2317,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1940,13 +2347,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1973,14 +2380,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1991,14 +2404,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2009,44 +2419,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2367,17 +2854,19 @@
   </sheetPr>
   <dimension ref="A2:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="73" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
     <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="32" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="29" customWidth="1"/>
     <col min="8" max="8" width="28.42578125" style="7" customWidth="1"/>
     <col min="9" max="9" width="77.28515625" customWidth="1"/>
   </cols>
@@ -2404,9 +2893,8 @@
       <c r="H2" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="I2" s="8">
-        <f>COUNT(D5:D66)</f>
-        <v>0</v>
+      <c r="I2" s="8" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -2416,7 +2904,7 @@
       <c r="C4" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="33" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="14" t="s">
@@ -2425,13 +2913,13 @@
       <c r="F4" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="31" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2439,25 +2927,25 @@
       <c r="B5" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="74">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="77" t="s">
         <v>229</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="E5" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="32" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2465,19 +2953,19 @@
       <c r="B6" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="75">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="73" t="s">
+      <c r="D6" s="77"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="32" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2485,19 +2973,19 @@
       <c r="B7" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="75">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="73" t="s">
+      <c r="D7" s="77"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="32" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2505,19 +2993,19 @@
       <c r="B8" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="75">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="73" t="s">
+      <c r="D8" s="77"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="I8" s="32" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2525,19 +3013,19 @@
       <c r="B9" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="75">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="73" t="s">
+      <c r="D9" s="77"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="I9" s="32" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2545,21 +3033,21 @@
       <c r="B10" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="75">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="64" t="s">
+      <c r="D10" s="77"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="G10" s="74" t="s">
+      <c r="G10" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="36" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2567,19 +3055,19 @@
       <c r="B11" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="75">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="74" t="s">
+      <c r="D11" s="77"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="H11" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="I11" s="40" t="s">
+      <c r="I11" s="36" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2587,677 +3075,677 @@
       <c r="B12" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="76">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="41" t="s">
+      <c r="D12" s="77"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="G12" s="75" t="s">
+      <c r="G12" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="H12" s="43" t="s">
+      <c r="H12" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="38" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="24">
         <v>4.2</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="77" t="s">
         <v>238</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="53" t="s">
         <v>296</v>
       </c>
-      <c r="F13" s="52" t="s">
+      <c r="F13" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="G13" s="73" t="s">
+      <c r="G13" s="49" t="s">
         <v>239</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="I13" s="35" t="str">
+      <c r="I13" s="32" t="str">
         <f>I12</f>
         <v>The document issued by the project initiator or sponsor that formally authorizes the existence of a project and provides the project manager with the authority to apply organizational resources to
 project activities.</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="50">
+      <c r="C14" s="26">
         <v>4.2</v>
       </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="73" t="s">
+      <c r="D14" s="77"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="I14" s="35" t="s">
+      <c r="I14" s="32" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15" s="26">
         <v>4.2</v>
       </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="73" t="s">
+      <c r="D15" s="77"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="I15" s="35" t="str">
+      <c r="I15" s="32" t="str">
         <f>I8</f>
         <v>Refers to conditions, not under the control of the project team, that influence, constrain, or direct the project. factors include"
 - Organizational culture, structure, and governance, Geographic distribution, Government or industry standards, Infrastructure, Existing human resources, Personnel administration, Company work authorization systems, Marketplace conditions, Stakeholder risk tolerances, Political climate, Organization’s established communications channels, Commercial databases, Project management information system</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="50">
+      <c r="C16" s="26">
         <v>4.2</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="73" t="s">
+      <c r="D16" s="77"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="49" t="s">
         <v>242</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="I16" s="35" t="str">
+      <c r="I16" s="32" t="str">
         <f>I9</f>
         <v>OPA may be grouped into two categories: (1) processes and procedures, and (2) corporate knowledge base. OPA include plans, processes, policies, procedures, organization’s knowledge bases such as lessons learned and historical information</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="50">
+      <c r="C17" s="26">
         <v>4.2</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="65" t="s">
+      <c r="D17" s="77"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="G17" s="74" t="s">
+      <c r="G17" s="50" t="s">
         <v>243</v>
       </c>
-      <c r="H17" s="40" t="s">
+      <c r="H17" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="I17" s="40" t="s">
+      <c r="I17" s="36" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="50">
+      <c r="C18" s="26">
         <v>4.2</v>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="74" t="s">
+      <c r="D18" s="77"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="H18" s="40" t="s">
+      <c r="H18" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="I18" s="40" t="str">
+      <c r="I18" s="36" t="str">
         <f>I11</f>
         <v>FT guide the development of the project charter. Brainstorming, conflict resolution, problem solving, and meeting management are examples of key techniques used by facilitators to help teams and individuals accomplish project activities.</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="285" x14ac:dyDescent="0.25">
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="51">
+      <c r="C19" s="28">
         <v>4.2</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="41" t="s">
+      <c r="D19" s="77"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="G19" s="76" t="s">
+      <c r="G19" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="H19" s="45" t="s">
+      <c r="H19" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="I19" s="45" t="s">
+      <c r="I19" s="41" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="46">
+      <c r="C20" s="22">
         <v>4.3</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="77" t="s">
         <v>246</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="53" t="s">
         <v>297</v>
       </c>
-      <c r="F20" s="52" t="s">
+      <c r="F20" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="G20" s="73" t="s">
+      <c r="G20" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="H20" s="35" t="s">
+      <c r="H20" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="I20" s="35" t="s">
+      <c r="I20" s="32" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="47">
+      <c r="C21" s="25">
         <v>4.3</v>
       </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="73" t="s">
+      <c r="D21" s="77"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="49" t="s">
         <v>248</v>
       </c>
-      <c r="H21" s="35" t="s">
+      <c r="H21" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="I21" s="35" t="s">
+      <c r="I21" s="32" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="47">
+      <c r="C22" s="25">
         <v>4.3</v>
       </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="73" t="s">
+      <c r="D22" s="77"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="H22" s="35" t="s">
+      <c r="H22" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="I22" s="35" t="s">
+      <c r="I22" s="32" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="47">
+      <c r="C23" s="25">
         <v>4.3</v>
       </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="73" t="s">
+      <c r="D23" s="77"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="H23" s="35" t="s">
+      <c r="H23" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="I23" s="35" t="s">
+      <c r="I23" s="32" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="47">
+      <c r="C24" s="25">
         <v>4.3</v>
       </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="54"/>
       <c r="F24" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="G24" s="74" t="s">
+      <c r="G24" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="H24" s="40" t="s">
+      <c r="H24" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="I24" s="40" t="s">
+      <c r="I24" s="36" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="47">
+      <c r="C25" s="25">
         <v>4.3</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="54"/>
       <c r="F25" s="16"/>
-      <c r="G25" s="74" t="s">
+      <c r="G25" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="H25" s="40" t="s">
+      <c r="H25" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="I25" s="40" t="s">
+      <c r="I25" s="36" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="47">
+      <c r="C26" s="25">
         <v>4.3</v>
       </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="54"/>
       <c r="F26" s="17"/>
-      <c r="G26" s="74" t="s">
+      <c r="G26" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="H26" s="40" t="s">
+      <c r="H26" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="I26" s="40" t="s">
+      <c r="I26" s="36" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="47">
+      <c r="C27" s="25">
         <v>4.3</v>
       </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="68" t="s">
+      <c r="D27" s="77"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="G27" s="76" t="s">
+      <c r="G27" s="52" t="s">
         <v>253</v>
       </c>
-      <c r="H27" s="45" t="s">
+      <c r="H27" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="I27" s="45" t="s">
+      <c r="I27" s="41" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="47">
+      <c r="C28" s="25">
         <v>4.3</v>
       </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="76" t="s">
+      <c r="D28" s="77"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="H28" s="45" t="s">
+      <c r="H28" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="I28" s="45" t="s">
+      <c r="I28" s="41" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="47">
+      <c r="C29" s="25">
         <v>4.3</v>
       </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="76" t="s">
+      <c r="D29" s="77"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="52" t="s">
         <v>255</v>
       </c>
-      <c r="H29" s="45" t="s">
+      <c r="H29" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="I29" s="45" t="s">
+      <c r="I29" s="41" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="47">
+      <c r="C30" s="25">
         <v>4.3</v>
       </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="44" t="s">
+      <c r="D30" s="77"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="H30" s="45" t="s">
+      <c r="H30" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="I30" s="45" t="s">
+      <c r="I30" s="41" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="48">
+      <c r="C31" s="27">
         <v>4.3</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="76" t="s">
+      <c r="D31" s="77"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="52" t="s">
         <v>257</v>
       </c>
-      <c r="H31" s="45" t="s">
+      <c r="H31" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="I31" s="45" t="s">
+      <c r="I31" s="41" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="22">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D32" s="55" t="s">
+      <c r="D32" s="77" t="s">
         <v>258</v>
       </c>
-      <c r="E32" s="55" t="s">
+      <c r="E32" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="F32" s="52" t="s">
+      <c r="F32" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="G32" s="73" t="s">
+      <c r="G32" s="49" t="s">
         <v>259</v>
       </c>
-      <c r="H32" s="35" t="s">
+      <c r="H32" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="I32" s="35" t="s">
+      <c r="I32" s="32" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="C33" s="28">
+      <c r="C33" s="25">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="73" t="s">
+      <c r="D33" s="77"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="49" t="s">
         <v>260</v>
       </c>
-      <c r="H33" s="35" t="s">
+      <c r="H33" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="I33" s="35" t="s">
+      <c r="I33" s="32" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="25">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="73" t="s">
+      <c r="D34" s="77"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="49" t="s">
         <v>261</v>
       </c>
-      <c r="H34" s="35" t="s">
+      <c r="H34" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="I34" s="35" t="s">
+      <c r="I34" s="32" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="C35" s="28">
+      <c r="C35" s="25">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="73" t="s">
+      <c r="D35" s="77"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="H35" s="35" t="s">
+      <c r="H35" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="I35" s="35" t="s">
+      <c r="I35" s="32" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="C36" s="28">
+      <c r="C36" s="25">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="73" t="s">
+      <c r="D36" s="77"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="49" t="s">
         <v>263</v>
       </c>
-      <c r="H36" s="35" t="s">
+      <c r="H36" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="I36" s="35" t="s">
+      <c r="I36" s="32" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="C37" s="28">
+      <c r="C37" s="25">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="73" t="s">
+      <c r="D37" s="77"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="H37" s="35" t="s">
+      <c r="H37" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="I37" s="35" t="s">
+      <c r="I37" s="32" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="C38" s="28">
+      <c r="C38" s="25">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="73" t="s">
+      <c r="D38" s="77"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="49" t="s">
         <v>265</v>
       </c>
-      <c r="H38" s="35" t="s">
+      <c r="H38" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="I38" s="35" t="s">
+      <c r="I38" s="32" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="C39" s="28">
+      <c r="C39" s="25">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="65" t="s">
+      <c r="D39" s="77"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="G39" s="74" t="s">
+      <c r="G39" s="50" t="s">
         <v>266</v>
       </c>
-      <c r="H39" s="40" t="s">
+      <c r="H39" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="I39" s="40" t="s">
+      <c r="I39" s="36" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="40" spans="2:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="C40" s="28">
+      <c r="C40" s="25">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="74" t="s">
+      <c r="D40" s="77"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="50" t="s">
         <v>267</v>
       </c>
-      <c r="H40" s="40" t="s">
+      <c r="H40" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="I40" s="40" t="s">
+      <c r="I40" s="36" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="C41" s="28">
+      <c r="C41" s="25">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="74" t="s">
+      <c r="D41" s="77"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="50" t="s">
         <v>268</v>
       </c>
-      <c r="H41" s="40" t="s">
+      <c r="H41" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="I41" s="40" t="s">
+      <c r="I41" s="36" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="C42" s="28">
+      <c r="C42" s="25">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="74" t="s">
+      <c r="D42" s="77"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="H42" s="40" t="s">
+      <c r="H42" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="I42" s="40" t="s">
+      <c r="I42" s="36" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="C43" s="28">
+      <c r="C43" s="25">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="68" t="s">
+      <c r="D43" s="77"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="G43" s="76" t="s">
+      <c r="G43" s="52" t="s">
         <v>270</v>
       </c>
-      <c r="H43" s="45" t="s">
+      <c r="H43" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="I43" s="39" t="str">
+      <c r="I43" s="35" t="str">
         <f>I29</f>
         <v>A change request is a formal proposal to modify any document, deliverable, or baseline.Requests for a change may include:
  - Corrective action - Realigns the performance as per project management plan.
@@ -3267,132 +3755,132 @@
       </c>
     </row>
     <row r="44" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="C44" s="28">
+      <c r="C44" s="25">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="76" t="s">
+      <c r="D44" s="77"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="52" t="s">
         <v>271</v>
       </c>
-      <c r="H44" s="45" t="s">
+      <c r="H44" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="I44" s="39" t="str">
+      <c r="I44" s="35" t="str">
         <f>I28</f>
         <v>These are the raw observations and measurements identified during activities being performed to carry out the project work. e.g. work completed, key performance indicators, technical performance measures</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="C45" s="28">
+      <c r="C45" s="25">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="44" t="s">
+      <c r="D45" s="77"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="H45" s="45" t="s">
+      <c r="H45" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="I45" s="39" t="str">
+      <c r="I45" s="35" t="str">
         <f>I30</f>
         <v>Elements of the project management plan that may be updated</v>
       </c>
     </row>
     <row r="46" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="C46" s="30">
+      <c r="C46" s="27">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="76" t="s">
+      <c r="D46" s="77"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="52" t="s">
         <v>273</v>
       </c>
-      <c r="H46" s="45" t="s">
+      <c r="H46" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="I46" s="39" t="str">
+      <c r="I46" s="35" t="str">
         <f>I31</f>
         <v>Project documents that may be updated Requirements documentation, Project logs, Risk register and Stakeholder register</v>
       </c>
     </row>
     <row r="47" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="C47" s="25">
+      <c r="C47" s="22">
         <v>4.5</v>
       </c>
-      <c r="D47" s="58" t="s">
+      <c r="D47" s="77" t="s">
         <v>274</v>
       </c>
-      <c r="E47" s="55" t="s">
+      <c r="E47" s="53" t="s">
         <v>299</v>
       </c>
-      <c r="F47" s="71" t="s">
+      <c r="F47" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="G47" s="73" t="s">
+      <c r="G47" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="H47" s="35" t="s">
+      <c r="H47" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="I47" s="35" t="s">
+      <c r="I47" s="32" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="C48" s="28">
+      <c r="C48" s="25">
         <v>4.5</v>
       </c>
-      <c r="D48" s="59"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="73" t="s">
+      <c r="D48" s="77"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="H48" s="35" t="s">
+      <c r="H48" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="I48" s="35" t="str">
+      <c r="I48" s="32" t="str">
         <f>I44</f>
         <v>These are the raw observations and measurements identified during activities being performed to carry out the project work. e.g. work completed, key performance indicators, technical performance measures</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="C49" s="28">
+      <c r="C49" s="25">
         <v>4.5</v>
       </c>
-      <c r="D49" s="59"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="73" t="s">
+      <c r="D49" s="77"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="49" t="s">
         <v>277</v>
       </c>
-      <c r="H49" s="35" t="s">
+      <c r="H49" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="I49" s="35" t="str">
+      <c r="I49" s="32" t="str">
         <f>I43</f>
         <v>A change request is a formal proposal to modify any document, deliverable, or baseline.Requests for a change may include:
  - Corrective action - Realigns the performance as per project management plan.
@@ -3402,372 +3890,383 @@
       </c>
     </row>
     <row r="50" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="C50" s="28">
+      <c r="C50" s="25">
         <v>4.5</v>
       </c>
-      <c r="D50" s="59"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="73" t="s">
+      <c r="D50" s="77"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="49" t="s">
         <v>278</v>
       </c>
-      <c r="H50" s="35" t="s">
+      <c r="H50" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="I50" s="35" t="str">
+      <c r="I50" s="32" t="str">
         <f>I37</f>
         <v>Factors include,
 - Governmental or industry standards, - Organization work authorization systems, - Stakeholder risk tolerances, - Project management information system</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="C51" s="28">
+      <c r="C51" s="25">
         <v>4.5</v>
       </c>
-      <c r="D51" s="59"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="73" t="s">
+      <c r="D51" s="77"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="49" t="s">
         <v>279</v>
       </c>
-      <c r="H51" s="35" t="s">
+      <c r="H51" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="I51" s="35" t="s">
+      <c r="I51" s="32" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="C52" s="28">
+      <c r="C52" s="25">
         <v>4.5</v>
       </c>
-      <c r="D52" s="59"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="64" t="s">
+      <c r="D52" s="77"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="G52" s="74" t="s">
+      <c r="G52" s="50" t="s">
         <v>280</v>
       </c>
-      <c r="H52" s="40" t="s">
+      <c r="H52" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="I52" s="40" t="s">
+      <c r="I52" s="36" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="C53" s="28">
+      <c r="C53" s="25">
         <v>4.5</v>
       </c>
-      <c r="D53" s="59"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="74" t="s">
+      <c r="D53" s="77"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="H53" s="40" t="s">
+      <c r="H53" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="I53" s="40" t="s">
+      <c r="I53" s="36" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="C54" s="28">
+      <c r="C54" s="25">
         <v>4.5</v>
       </c>
-      <c r="D54" s="59"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="74" t="s">
+      <c r="D54" s="77"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="50" t="s">
         <v>282</v>
       </c>
-      <c r="H54" s="40" t="s">
+      <c r="H54" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="I54" s="40" t="s">
+      <c r="I54" s="36" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="C55" s="28">
+      <c r="C55" s="25">
         <v>4.5</v>
       </c>
-      <c r="D55" s="59"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="72" t="s">
+      <c r="D55" s="77"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="G55" s="76" t="s">
+      <c r="G55" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="H55" s="45" t="s">
+      <c r="H55" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="I55" s="45" t="str">
+      <c r="I55" s="41" t="str">
         <f>I21</f>
         <v>These are an output of the Perform Integrated Change Control process, and include those requests reviewed and approved for implementation by the change control board (CCB).</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="C56" s="28">
+      <c r="C56" s="25">
         <v>4.5</v>
       </c>
-      <c r="D56" s="59"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="76" t="s">
+      <c r="D56" s="77"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="H56" s="45" t="s">
+      <c r="H56" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="I56" s="45" t="s">
+      <c r="I56" s="41" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="C57" s="28">
+      <c r="C57" s="25">
         <v>4.5</v>
       </c>
-      <c r="D57" s="59"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="72"/>
-      <c r="G57" s="44" t="s">
+      <c r="D57" s="77"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="40" t="s">
         <v>285</v>
       </c>
-      <c r="H57" s="45" t="s">
+      <c r="H57" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="I57" s="45" t="str">
+      <c r="I57" s="41" t="str">
         <f>I45</f>
         <v>Elements of the project management plan that may be updated</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="C58" s="30">
+      <c r="C58" s="27">
         <v>4.5</v>
       </c>
-      <c r="D58" s="60"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="72"/>
-      <c r="G58" s="76" t="s">
+      <c r="D58" s="77"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="52" t="s">
         <v>286</v>
       </c>
-      <c r="H58" s="45" t="s">
+      <c r="H58" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="I58" s="45" t="str">
+      <c r="I58" s="41" t="str">
         <f>I46</f>
         <v>Project documents that may be updated Requirements documentation, Project logs, Risk register and Stakeholder register</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="22">
+      <c r="C59" s="42">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D59" s="58" t="s">
+      <c r="D59" s="77" t="s">
         <v>287</v>
       </c>
-      <c r="E59" s="55" t="s">
+      <c r="E59" s="53" t="s">
         <v>300</v>
       </c>
-      <c r="F59" s="71" t="s">
+      <c r="F59" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="G59" s="73" t="s">
+      <c r="G59" s="49" t="s">
         <v>288</v>
       </c>
-      <c r="H59" s="35" t="s">
+      <c r="H59" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="I59" s="35" t="s">
+      <c r="I59" s="32" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B60" s="28" t="s">
+      <c r="B60" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="23">
+      <c r="C60" s="43">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D60" s="59"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="73" t="s">
+      <c r="D60" s="77"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="49" t="s">
         <v>289</v>
       </c>
-      <c r="H60" s="35" t="s">
+      <c r="H60" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="I60" s="35" t="s">
+      <c r="I60" s="32" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B61" s="28" t="s">
+      <c r="B61" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="23">
+      <c r="C61" s="43">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D61" s="59"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="73" t="s">
+      <c r="D61" s="77"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="49" t="s">
         <v>290</v>
       </c>
-      <c r="H61" s="35" t="s">
+      <c r="H61" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="I61" s="35" t="s">
+      <c r="I61" s="32" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="62" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B62" s="28" t="s">
+      <c r="B62" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="23">
+      <c r="C62" s="43">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D62" s="59"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="64" t="s">
+      <c r="D62" s="77"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="G62" s="74" t="s">
+      <c r="G62" s="50" t="s">
         <v>291</v>
       </c>
-      <c r="H62" s="40" t="s">
+      <c r="H62" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="I62" s="40" t="s">
+      <c r="I62" s="36" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B63" s="28" t="s">
+      <c r="B63" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="23">
+      <c r="C63" s="43">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D63" s="59"/>
-      <c r="E63" s="56"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="74" t="s">
+      <c r="D63" s="77"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="50" t="s">
         <v>292</v>
       </c>
-      <c r="H63" s="40" t="s">
+      <c r="H63" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="I63" s="40" t="s">
+      <c r="I63" s="36" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B64" s="28" t="s">
+      <c r="B64" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="23">
+      <c r="C64" s="43">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D64" s="59"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="74" t="s">
+      <c r="D64" s="77"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="50" t="s">
         <v>293</v>
       </c>
-      <c r="H64" s="40" t="s">
+      <c r="H64" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="I64" s="40" t="s">
+      <c r="I64" s="36" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B65" s="28" t="s">
+      <c r="B65" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="23">
+      <c r="C65" s="43">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D65" s="59"/>
-      <c r="E65" s="56"/>
-      <c r="F65" s="72" t="s">
+      <c r="D65" s="77"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="G65" s="76" t="s">
+      <c r="G65" s="52" t="s">
         <v>294</v>
       </c>
-      <c r="H65" s="45" t="s">
+      <c r="H65" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="I65" s="45" t="s">
+      <c r="I65" s="41" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="24">
+      <c r="C66" s="44">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D66" s="60"/>
-      <c r="E66" s="57"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="76" t="s">
+      <c r="D66" s="77"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="52" t="s">
         <v>295</v>
       </c>
-      <c r="H66" s="45" t="s">
+      <c r="H66" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="I66" s="45" t="s">
+      <c r="I66" s="41" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
-      <c r="D67" s="37"/>
+      <c r="D67" s="72"/>
       <c r="E67" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:H66"/>
   <mergeCells count="27">
+    <mergeCell ref="D5:D12"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E32:E46"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="F32:F38"/>
+    <mergeCell ref="D20:D31"/>
+    <mergeCell ref="D47:D58"/>
+    <mergeCell ref="D32:D46"/>
+    <mergeCell ref="E47:E58"/>
     <mergeCell ref="E59:E66"/>
     <mergeCell ref="F62:F64"/>
     <mergeCell ref="F65:F66"/>
@@ -3784,23 +4283,12 @@
     <mergeCell ref="F13:F16"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="F27:F31"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="F32:F38"/>
-    <mergeCell ref="D20:D31"/>
-    <mergeCell ref="D47:D58"/>
-    <mergeCell ref="D32:D46"/>
-    <mergeCell ref="D5:D12"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E32:E46"/>
-    <mergeCell ref="E47:E58"/>
   </mergeCells>
   <pageMargins left="0.25" right="0" top="0.25" bottom="0" header="0.1" footer="0"/>
   <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;LKiran Vidhate
-&amp;RPMBok - Process Chart</oddHeader>
+    <oddHeader xml:space="preserve">&amp;L&amp;P of &amp;N&amp;CPMI  - Processes Notes  (Kiran Vidhate)&amp;R 
+</oddHeader>
   </headerFooter>
   <rowBreaks count="5" manualBreakCount="5">
     <brk id="12" max="16383" man="1"/>
@@ -3813,6 +4301,1358 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:K130"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="5.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="36.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="38.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G15" s="4"/>
+      <c r="I15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G16" s="4"/>
+      <c r="I16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G17" s="4"/>
+      <c r="I17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G18" s="4"/>
+      <c r="H18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G19" s="4"/>
+      <c r="I19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G20" s="4"/>
+      <c r="H20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G22" s="4"/>
+      <c r="I22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G23" s="4"/>
+      <c r="I23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G24" s="4"/>
+      <c r="I24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G25" s="4"/>
+      <c r="H25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G26" s="4"/>
+      <c r="I26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G27" s="4"/>
+      <c r="I27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G28" s="4"/>
+      <c r="H28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G29" s="4"/>
+      <c r="I29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G30" s="4"/>
+      <c r="I30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G31" s="4"/>
+      <c r="I31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G32" s="4"/>
+      <c r="I32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G34" s="4"/>
+      <c r="I34" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G35" s="4"/>
+      <c r="I35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G36" s="4"/>
+      <c r="I36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G37" s="4"/>
+      <c r="I37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G38" s="4"/>
+      <c r="I38" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G39" s="4"/>
+      <c r="I39" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G40" s="4"/>
+      <c r="H40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G41" s="4"/>
+      <c r="I41" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J41" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G42" s="4"/>
+      <c r="I42" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G43" s="4"/>
+      <c r="I43" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J43" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G44" s="4"/>
+      <c r="H44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G45" s="4"/>
+      <c r="I45" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J45" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G46" s="4"/>
+      <c r="I46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J46" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G47" s="4"/>
+      <c r="I47" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F48" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G49" s="4"/>
+      <c r="I49" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J49" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G50" s="4"/>
+      <c r="I50" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G51" s="4"/>
+      <c r="I51" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G52" s="4"/>
+      <c r="I52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G53" s="4"/>
+      <c r="H53" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G54" s="4"/>
+      <c r="I54" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G55" s="4"/>
+      <c r="I55" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G56" s="4"/>
+      <c r="H56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G57" s="4"/>
+      <c r="I57" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J57" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G58" s="4"/>
+      <c r="I58" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G59" s="4"/>
+      <c r="I59" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J59" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G61" s="4"/>
+      <c r="I61" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J61" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G62" s="4"/>
+      <c r="I62" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G63" s="4"/>
+      <c r="H63" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G64" s="4"/>
+      <c r="I64" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J64" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G65" s="4"/>
+      <c r="I65" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J65" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G66" s="4"/>
+      <c r="H66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J66" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G67" s="4"/>
+      <c r="I67" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J67" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="1">
+        <v>2</v>
+      </c>
+      <c r="C68" s="1">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="5"/>
+      <c r="G68" s="6"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G69" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F70" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="G70" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F71" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="G71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F72" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="G72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E73" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73" s="5"/>
+      <c r="G73" s="6"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E74" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F74" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="G74" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F75" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="G75" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E76" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F76" s="5"/>
+      <c r="G76" s="6"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="1">
+        <v>3</v>
+      </c>
+      <c r="C77" s="1">
+        <v>6</v>
+      </c>
+      <c r="D77" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" s="5"/>
+      <c r="G77" s="6"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E78" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F78" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="G78" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F79" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="G79" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F80" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="G80" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F81" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="G81" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F82" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="G82" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F83" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="G83" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E84" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84" s="5"/>
+      <c r="G84" s="6"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E85" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F85" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E86" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F86" s="5"/>
+      <c r="G86" s="6"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="1">
+        <v>4</v>
+      </c>
+      <c r="C87" s="1">
+        <v>7</v>
+      </c>
+      <c r="D87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F87" s="5"/>
+      <c r="G87" s="6"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="G88" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F89" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="G89" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F90" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="G90" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E91" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F91" s="5"/>
+      <c r="G91" s="6"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E92" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F92" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="G92" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E93" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F93" s="5"/>
+      <c r="G93" s="6"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="1">
+        <v>5</v>
+      </c>
+      <c r="C94" s="1">
+        <v>8</v>
+      </c>
+      <c r="D94" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F94" s="5"/>
+      <c r="G94" s="6"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E95" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F95" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="G95" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E96" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F96" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E97" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F97" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G97" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E98" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F98" s="5"/>
+      <c r="G98" s="6"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="1">
+        <v>6</v>
+      </c>
+      <c r="C99" s="1">
+        <v>9</v>
+      </c>
+      <c r="D99" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F99" s="5"/>
+      <c r="G99" s="6"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E100" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F100" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="G100" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E101" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F101" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G101" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F102" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G102" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F103" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="G103" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E104" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F104" s="5"/>
+      <c r="G104" s="6"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E105" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F105" s="5"/>
+      <c r="G105" s="6"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="1">
+        <v>7</v>
+      </c>
+      <c r="C106" s="1">
+        <v>10</v>
+      </c>
+      <c r="D106" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F106" s="5"/>
+      <c r="G106" s="6"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E107" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F107" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="G107" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E108" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F108" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G108" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E109" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F109" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="G109" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E110" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F110" s="5"/>
+      <c r="G110" s="6"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="1">
+        <v>8</v>
+      </c>
+      <c r="C111" s="1">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F111" s="5"/>
+      <c r="G111" s="6"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E112" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F112" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="G112" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F113" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="G113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F114" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="G114" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F115" s="1">
+        <v>11.4</v>
+      </c>
+      <c r="G115" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F116" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="G116" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E117" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F117" s="5"/>
+      <c r="G117" s="6"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E118" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F118" s="1">
+        <v>11.6</v>
+      </c>
+      <c r="G118" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E119" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F119" s="5"/>
+      <c r="G119" s="6"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B120" s="1">
+        <v>9</v>
+      </c>
+      <c r="C120" s="1">
+        <v>12</v>
+      </c>
+      <c r="D120" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F120" s="5"/>
+      <c r="G120" s="6"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E121" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F121" s="1">
+        <v>12.1</v>
+      </c>
+      <c r="G121" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E122" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F122" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="G122" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E123" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F123" s="1">
+        <v>12.3</v>
+      </c>
+      <c r="G123" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E124" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F124" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="G124" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125" s="1">
+        <v>10</v>
+      </c>
+      <c r="C125" s="1">
+        <v>13</v>
+      </c>
+      <c r="D125" t="s">
+        <v>18</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F125" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="G125" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E126" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F126" s="1">
+        <v>13.2</v>
+      </c>
+      <c r="G126" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E127" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F127" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="G127" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E128" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F128" s="1">
+        <v>13.4</v>
+      </c>
+      <c r="G128" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E129" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F129" s="5"/>
+      <c r="G129" s="6"/>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B130" s="2"/>
+      <c r="C130" s="2">
+        <f>COUNT(C6:C129)</f>
+        <v>10</v>
+      </c>
+      <c r="D130" s="3"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2">
+        <f>COUNT(F6:F129)</f>
+        <v>47</v>
+      </c>
+      <c r="G130" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:K130"/>
   <sheetViews>
@@ -5166,10 +7006,1368 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B45" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="73" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="77.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="10">
+        <v>5</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="I4" s="31"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="83"/>
+    </row>
+    <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="74">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D6" s="77" t="s">
+        <v>307</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>306</v>
+      </c>
+      <c r="F6" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>308</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="32"/>
+    </row>
+    <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="75">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D7" s="77"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="32"/>
+    </row>
+    <row r="8" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="75">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D8" s="77"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="I8" s="32"/>
+    </row>
+    <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="75">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D9" s="77"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="I9" s="32"/>
+    </row>
+    <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="75">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D10" s="77"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>313</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="36"/>
+    </row>
+    <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="75">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D11" s="77"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="50" t="s">
+        <v>312</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="36"/>
+    </row>
+    <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="20"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="86" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>314</v>
+      </c>
+      <c r="I12" s="38"/>
+    </row>
+    <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="75">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D13" s="77"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="51" t="s">
+        <v>316</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="I13" s="38"/>
+    </row>
+    <row r="14" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="24">
+        <v>5.2</v>
+      </c>
+      <c r="D14" s="77" t="s">
+        <v>319</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>318</v>
+      </c>
+      <c r="F14" s="98" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>320</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="I14" s="32"/>
+    </row>
+    <row r="15" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="26">
+        <v>5.2</v>
+      </c>
+      <c r="D15" s="77"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="I15" s="32"/>
+    </row>
+    <row r="16" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="26">
+        <v>4.2</v>
+      </c>
+      <c r="D16" s="77"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="I16" s="32"/>
+    </row>
+    <row r="17" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="26">
+        <v>4.2</v>
+      </c>
+      <c r="D17" s="77"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" s="32"/>
+    </row>
+    <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="43"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="I18" s="32"/>
+    </row>
+    <row r="19" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="26">
+        <v>4.2</v>
+      </c>
+      <c r="D19" s="77"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" s="50" t="s">
+        <v>338</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="I19" s="36"/>
+    </row>
+    <row r="20" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="43"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="50" t="s">
+        <v>339</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="I20" s="36"/>
+    </row>
+    <row r="21" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="43"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="50" t="s">
+        <v>340</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="I21" s="36"/>
+    </row>
+    <row r="22" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="43"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="50" t="s">
+        <v>341</v>
+      </c>
+      <c r="H22" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="I22" s="36"/>
+    </row>
+    <row r="23" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="43"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="50" t="s">
+        <v>342</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="I23" s="36"/>
+    </row>
+    <row r="24" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="43"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="50" t="s">
+        <v>343</v>
+      </c>
+      <c r="H24" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="I24" s="36"/>
+    </row>
+    <row r="25" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="43"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="50" t="s">
+        <v>344</v>
+      </c>
+      <c r="H25" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="I25" s="36"/>
+    </row>
+    <row r="26" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="43"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="50" t="s">
+        <v>345</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="I26" s="36"/>
+    </row>
+    <row r="27" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="43"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="50" t="s">
+        <v>346</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="I27" s="36"/>
+    </row>
+    <row r="28" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="43"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="50" t="s">
+        <v>347</v>
+      </c>
+      <c r="H28" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="I28" s="36"/>
+    </row>
+    <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="26">
+        <v>4.2</v>
+      </c>
+      <c r="D29" s="77"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="50" t="s">
+        <v>348</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="I29" s="36"/>
+    </row>
+    <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="43"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="86" t="s">
+        <v>166</v>
+      </c>
+      <c r="G30" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="H30" s="41" t="s">
+        <v>352</v>
+      </c>
+      <c r="I30" s="41"/>
+    </row>
+    <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="28">
+        <v>4.2</v>
+      </c>
+      <c r="D31" s="77"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="H31" s="41" t="s">
+        <v>351</v>
+      </c>
+      <c r="I31" s="41"/>
+    </row>
+    <row r="32" spans="2:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="22">
+        <v>5.3</v>
+      </c>
+      <c r="D32" s="77" t="s">
+        <v>369</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>353</v>
+      </c>
+      <c r="F32" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" s="49" t="s">
+        <v>355</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="I32" s="32"/>
+    </row>
+    <row r="33" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="25">
+        <v>5.3</v>
+      </c>
+      <c r="D33" s="77"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="H33" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="I33" s="32"/>
+    </row>
+    <row r="34" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="25">
+        <v>5.3</v>
+      </c>
+      <c r="D34" s="77"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="49" t="s">
+        <v>357</v>
+      </c>
+      <c r="H34" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="I34" s="32"/>
+    </row>
+    <row r="35" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="25">
+        <v>5.3</v>
+      </c>
+      <c r="D35" s="77"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="H35" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I35" s="32"/>
+    </row>
+    <row r="36" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="25">
+        <v>5.3</v>
+      </c>
+      <c r="D36" s="77"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G36" s="50" t="s">
+        <v>361</v>
+      </c>
+      <c r="H36" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="I36" s="36"/>
+    </row>
+    <row r="37" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="25">
+        <v>5.3</v>
+      </c>
+      <c r="D37" s="77"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="50" t="s">
+        <v>362</v>
+      </c>
+      <c r="H37" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="I37" s="36"/>
+    </row>
+    <row r="38" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="43"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="50" t="s">
+        <v>363</v>
+      </c>
+      <c r="H38" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="I38" s="36"/>
+    </row>
+    <row r="39" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="25">
+        <v>5.3</v>
+      </c>
+      <c r="D39" s="77"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="50" t="s">
+        <v>364</v>
+      </c>
+      <c r="H39" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="I39" s="36"/>
+    </row>
+    <row r="40" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="25">
+        <v>5.3</v>
+      </c>
+      <c r="D40" s="77"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="G40" s="52" t="s">
+        <v>367</v>
+      </c>
+      <c r="H40" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="I40" s="41"/>
+    </row>
+    <row r="41" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B41" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="25">
+        <v>5.3</v>
+      </c>
+      <c r="D41" s="77"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="52" t="s">
+        <v>368</v>
+      </c>
+      <c r="H41" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="I41" s="41"/>
+    </row>
+    <row r="42" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B42" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="22">
+        <v>5.4</v>
+      </c>
+      <c r="D42" s="77" t="s">
+        <v>371</v>
+      </c>
+      <c r="E42" s="53" t="s">
+        <v>370</v>
+      </c>
+      <c r="F42" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="G42" s="49" t="s">
+        <v>372</v>
+      </c>
+      <c r="H42" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="I42" s="32"/>
+    </row>
+    <row r="43" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="25">
+        <v>5.4</v>
+      </c>
+      <c r="D43" s="77"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="H43" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="I43" s="32"/>
+    </row>
+    <row r="44" spans="2:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="25">
+        <v>5.4</v>
+      </c>
+      <c r="D44" s="77"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="49" t="s">
+        <v>374</v>
+      </c>
+      <c r="H44" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="I44" s="32"/>
+    </row>
+    <row r="45" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="25">
+        <v>5.4</v>
+      </c>
+      <c r="D45" s="77"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="49" t="s">
+        <v>375</v>
+      </c>
+      <c r="H45" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="I45" s="32"/>
+    </row>
+    <row r="46" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="25">
+        <v>5.4</v>
+      </c>
+      <c r="D46" s="77"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="49" t="s">
+        <v>376</v>
+      </c>
+      <c r="H46" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I46" s="32"/>
+    </row>
+    <row r="47" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="25">
+        <v>5.4</v>
+      </c>
+      <c r="D47" s="77"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="G47" s="50" t="s">
+        <v>378</v>
+      </c>
+      <c r="H47" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="I47" s="36"/>
+    </row>
+    <row r="48" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B48" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="25">
+        <v>5.4</v>
+      </c>
+      <c r="D48" s="77"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="50" t="s">
+        <v>379</v>
+      </c>
+      <c r="H48" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="I48" s="36"/>
+    </row>
+    <row r="49" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B49" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="25">
+        <v>5.4</v>
+      </c>
+      <c r="D49" s="77"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="G49" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="H49" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="I49" s="35"/>
+    </row>
+    <row r="50" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B50" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="25">
+        <v>5.4</v>
+      </c>
+      <c r="D50" s="77"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="52" t="s">
+        <v>271</v>
+      </c>
+      <c r="H50" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="I50" s="35"/>
+    </row>
+    <row r="51" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="25">
+        <v>5.4</v>
+      </c>
+      <c r="D51" s="77"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="H51" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="I51" s="35"/>
+    </row>
+    <row r="52" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="25">
+        <v>5.4</v>
+      </c>
+      <c r="D52" s="71"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="87" t="s">
+        <v>273</v>
+      </c>
+      <c r="H52" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="I52" s="35"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="94"/>
+      <c r="D53" s="95"/>
+      <c r="E53" s="92"/>
+      <c r="F53" s="91"/>
+      <c r="G53" s="95"/>
+      <c r="H53" s="92"/>
+      <c r="I53" s="92"/>
+    </row>
+    <row r="54" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B54" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" s="22">
+        <v>5.5</v>
+      </c>
+      <c r="D54" s="77" t="s">
+        <v>303</v>
+      </c>
+      <c r="E54" s="53" t="s">
+        <v>302</v>
+      </c>
+      <c r="F54" s="67" t="s">
+        <v>164</v>
+      </c>
+      <c r="G54" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="H54" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="I54" s="32"/>
+    </row>
+    <row r="55" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B55" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="25">
+        <v>5.5</v>
+      </c>
+      <c r="D55" s="77"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="H55" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="I55" s="32"/>
+    </row>
+    <row r="56" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B56" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" s="25">
+        <v>5.5</v>
+      </c>
+      <c r="D56" s="77"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="H56" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="I56" s="32"/>
+    </row>
+    <row r="57" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B57" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" s="25">
+        <v>5.5</v>
+      </c>
+      <c r="D57" s="77"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="49" t="s">
+        <v>278</v>
+      </c>
+      <c r="H57" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="I57" s="32"/>
+    </row>
+    <row r="58" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B58" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" s="25">
+        <v>5.5</v>
+      </c>
+      <c r="D58" s="77"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="H58" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I58" s="32"/>
+    </row>
+    <row r="59" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B59" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" s="25">
+        <v>5.5</v>
+      </c>
+      <c r="D59" s="77"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="G59" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="H59" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="I59" s="36"/>
+    </row>
+    <row r="60" spans="2:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C60" s="25">
+        <v>5.5</v>
+      </c>
+      <c r="D60" s="77"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="56"/>
+      <c r="G60" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="H60" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="I60" s="36"/>
+    </row>
+    <row r="61" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C61" s="25">
+        <v>5.5</v>
+      </c>
+      <c r="D61" s="77"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="H61" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="I61" s="36"/>
+    </row>
+    <row r="62" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B62" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C62" s="25">
+        <v>5.5</v>
+      </c>
+      <c r="D62" s="77"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="G62" s="52" t="s">
+        <v>283</v>
+      </c>
+      <c r="H62" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="I62" s="41"/>
+    </row>
+    <row r="63" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B63" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C63" s="25">
+        <v>5.5</v>
+      </c>
+      <c r="D63" s="77"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="H63" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="I63" s="41"/>
+    </row>
+    <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C64" s="25">
+        <v>5.5</v>
+      </c>
+      <c r="D64" s="77"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="H64" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="I64" s="41"/>
+    </row>
+    <row r="65" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="C65" s="25">
+        <v>5.5</v>
+      </c>
+      <c r="D65" s="77"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="H65" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="I65" s="41"/>
+    </row>
+    <row r="66" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="85" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" s="42">
+        <v>5.6</v>
+      </c>
+      <c r="D66" s="77" t="s">
+        <v>287</v>
+      </c>
+      <c r="E66" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="F66" s="67" t="s">
+        <v>164</v>
+      </c>
+      <c r="G66" s="49" t="s">
+        <v>288</v>
+      </c>
+      <c r="H66" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="I66" s="32"/>
+    </row>
+    <row r="67" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B67" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C67" s="43">
+        <v>5.6</v>
+      </c>
+      <c r="D67" s="77"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="67"/>
+      <c r="G67" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="H67" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="I67" s="32"/>
+    </row>
+    <row r="68" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B68" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C68" s="43">
+        <v>5.6</v>
+      </c>
+      <c r="D68" s="77"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="49" t="s">
+        <v>290</v>
+      </c>
+      <c r="H68" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I68" s="32"/>
+    </row>
+    <row r="69" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B69" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C69" s="43">
+        <v>5.6</v>
+      </c>
+      <c r="D69" s="77"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="G69" s="50" t="s">
+        <v>291</v>
+      </c>
+      <c r="H69" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="I69" s="36"/>
+    </row>
+    <row r="70" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B70" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C70" s="43">
+        <v>5.6</v>
+      </c>
+      <c r="D70" s="77"/>
+      <c r="E70" s="59"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="H70" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="I70" s="36"/>
+    </row>
+    <row r="71" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B71" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C71" s="43">
+        <v>5.6</v>
+      </c>
+      <c r="D71" s="77"/>
+      <c r="E71" s="59"/>
+      <c r="F71" s="56"/>
+      <c r="G71" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="H71" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="I71" s="36"/>
+    </row>
+    <row r="72" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B72" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C72" s="43">
+        <v>5.6</v>
+      </c>
+      <c r="D72" s="77"/>
+      <c r="E72" s="59"/>
+      <c r="F72" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="G72" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="H72" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="I72" s="41"/>
+    </row>
+    <row r="73" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B73" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C73" s="43">
+        <v>5.6</v>
+      </c>
+      <c r="D73" s="71"/>
+      <c r="E73" s="59"/>
+      <c r="F73" s="86"/>
+      <c r="G73" s="87" t="s">
+        <v>295</v>
+      </c>
+      <c r="H73" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="I73" s="88"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="89"/>
+      <c r="D74" s="80"/>
+      <c r="E74" s="90"/>
+      <c r="F74" s="89"/>
+      <c r="G74" s="91"/>
+      <c r="H74" s="92"/>
+      <c r="I74" s="93"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="D54:D65"/>
+    <mergeCell ref="E54:E65"/>
+    <mergeCell ref="F54:F58"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="D66:D73"/>
+    <mergeCell ref="E66:E73"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="D32:D41"/>
+    <mergeCell ref="E32:E41"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="D42:D52"/>
+    <mergeCell ref="E42:E52"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="E6:E13"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D14:D31"/>
+    <mergeCell ref="E14:E31"/>
+    <mergeCell ref="F19:F29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5307,1358 +8505,6 @@
         <v>6</v>
       </c>
       <c r="G13" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:K130"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="5.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="38.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="36.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="38.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G15" s="4"/>
-      <c r="I15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G16" s="4"/>
-      <c r="I16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G17" s="4"/>
-      <c r="I17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G18" s="4"/>
-      <c r="H18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G19" s="4"/>
-      <c r="I19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G20" s="4"/>
-      <c r="H20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G22" s="4"/>
-      <c r="I22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G23" s="4"/>
-      <c r="I23" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G24" s="4"/>
-      <c r="I24" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G25" s="4"/>
-      <c r="H25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G26" s="4"/>
-      <c r="I26" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G27" s="4"/>
-      <c r="I27" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G28" s="4"/>
-      <c r="H28" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G29" s="4"/>
-      <c r="I29" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G30" s="4"/>
-      <c r="I30" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G31" s="4"/>
-      <c r="I31" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G32" s="4"/>
-      <c r="I32" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G34" s="4"/>
-      <c r="I34" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J34" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G35" s="4"/>
-      <c r="I35" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J35" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G36" s="4"/>
-      <c r="I36" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J36" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G37" s="4"/>
-      <c r="I37" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G38" s="4"/>
-      <c r="I38" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J38" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G39" s="4"/>
-      <c r="I39" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J39" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G40" s="4"/>
-      <c r="H40" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J40" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G41" s="4"/>
-      <c r="I41" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J41" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G42" s="4"/>
-      <c r="I42" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J42" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G43" s="4"/>
-      <c r="I43" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J43" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G44" s="4"/>
-      <c r="H44" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J44" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G45" s="4"/>
-      <c r="I45" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J45" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="46" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G46" s="4"/>
-      <c r="I46" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J46" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="47" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G47" s="4"/>
-      <c r="I47" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J47" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="48" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="F48" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J48" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="49" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G49" s="4"/>
-      <c r="I49" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J49" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="50" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G50" s="4"/>
-      <c r="I50" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="J50" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G51" s="4"/>
-      <c r="I51" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J51" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G52" s="4"/>
-      <c r="I52" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J52" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G53" s="4"/>
-      <c r="H53" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J53" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="54" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G54" s="4"/>
-      <c r="I54" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J54" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G55" s="4"/>
-      <c r="I55" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J55" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="56" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G56" s="4"/>
-      <c r="H56" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J56" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="57" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G57" s="4"/>
-      <c r="I57" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J57" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="58" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G58" s="4"/>
-      <c r="I58" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="J58" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G59" s="4"/>
-      <c r="I59" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J59" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="60" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E60" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F60" s="1">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J60" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="61" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G61" s="4"/>
-      <c r="I61" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J61" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="62" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G62" s="4"/>
-      <c r="I62" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J62" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G63" s="4"/>
-      <c r="H63" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J63" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G64" s="4"/>
-      <c r="I64" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J64" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G65" s="4"/>
-      <c r="I65" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J65" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G66" s="4"/>
-      <c r="H66" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J66" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G67" s="4"/>
-      <c r="I67" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J67" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="1">
-        <v>2</v>
-      </c>
-      <c r="C68" s="1">
-        <v>5</v>
-      </c>
-      <c r="D68" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F68" s="5"/>
-      <c r="G68" s="6"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E69" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F69" s="1">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="G69" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F70" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="G70" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F71" s="1">
-        <v>5.3</v>
-      </c>
-      <c r="G71" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F72" s="1">
-        <v>5.4</v>
-      </c>
-      <c r="G72" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E73" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F73" s="5"/>
-      <c r="G73" s="6"/>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E74" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F74" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="G74" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F75" s="1">
-        <v>5.6</v>
-      </c>
-      <c r="G75" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E76" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F76" s="5"/>
-      <c r="G76" s="6"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="1">
-        <v>3</v>
-      </c>
-      <c r="C77" s="1">
-        <v>6</v>
-      </c>
-      <c r="D77" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F77" s="5"/>
-      <c r="G77" s="6"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E78" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F78" s="1">
-        <v>6.1</v>
-      </c>
-      <c r="G78" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F79" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="G79" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F80" s="1">
-        <v>6.3</v>
-      </c>
-      <c r="G80" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F81" s="1">
-        <v>6.4</v>
-      </c>
-      <c r="G81" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F82" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="G82" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F83" s="1">
-        <v>6.6</v>
-      </c>
-      <c r="G83" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E84" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F84" s="5"/>
-      <c r="G84" s="6"/>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E85" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F85" s="1">
-        <v>6.7</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E86" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F86" s="5"/>
-      <c r="G86" s="6"/>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="1">
-        <v>4</v>
-      </c>
-      <c r="C87" s="1">
-        <v>7</v>
-      </c>
-      <c r="D87" t="s">
-        <v>12</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F87" s="5"/>
-      <c r="G87" s="6"/>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E88" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F88" s="1">
-        <v>7.1</v>
-      </c>
-      <c r="G88" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F89" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="G89" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F90" s="1">
-        <v>7.3</v>
-      </c>
-      <c r="G90" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E91" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F91" s="5"/>
-      <c r="G91" s="6"/>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E92" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F92" s="1">
-        <v>7.4</v>
-      </c>
-      <c r="G92" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E93" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F93" s="5"/>
-      <c r="G93" s="6"/>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B94" s="1">
-        <v>5</v>
-      </c>
-      <c r="C94" s="1">
-        <v>8</v>
-      </c>
-      <c r="D94" t="s">
-        <v>13</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F94" s="5"/>
-      <c r="G94" s="6"/>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E95" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F95" s="1">
-        <v>8.1</v>
-      </c>
-      <c r="G95" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E96" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F96" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G96" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E97" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F97" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="G97" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E98" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F98" s="5"/>
-      <c r="G98" s="6"/>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B99" s="1">
-        <v>6</v>
-      </c>
-      <c r="C99" s="1">
-        <v>9</v>
-      </c>
-      <c r="D99" t="s">
-        <v>14</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F99" s="5"/>
-      <c r="G99" s="6"/>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E100" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F100" s="1">
-        <v>9.1</v>
-      </c>
-      <c r="G100" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E101" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F101" s="1">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="G101" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F102" s="1">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="G102" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F103" s="1">
-        <v>9.4</v>
-      </c>
-      <c r="G103" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E104" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F104" s="5"/>
-      <c r="G104" s="6"/>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E105" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F105" s="5"/>
-      <c r="G105" s="6"/>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B106" s="1">
-        <v>7</v>
-      </c>
-      <c r="C106" s="1">
-        <v>10</v>
-      </c>
-      <c r="D106" t="s">
-        <v>15</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F106" s="5"/>
-      <c r="G106" s="6"/>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E107" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F107" s="1">
-        <v>10.1</v>
-      </c>
-      <c r="G107" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E108" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F108" s="1">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="G108" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E109" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F109" s="1">
-        <v>10.3</v>
-      </c>
-      <c r="G109" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E110" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F110" s="5"/>
-      <c r="G110" s="6"/>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B111" s="1">
-        <v>8</v>
-      </c>
-      <c r="C111" s="1">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s">
-        <v>16</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F111" s="5"/>
-      <c r="G111" s="6"/>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E112" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F112" s="1">
-        <v>11.1</v>
-      </c>
-      <c r="G112" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F113" s="1">
-        <v>11.2</v>
-      </c>
-      <c r="G113" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F114" s="1">
-        <v>11.3</v>
-      </c>
-      <c r="G114" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F115" s="1">
-        <v>11.4</v>
-      </c>
-      <c r="G115" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F116" s="1">
-        <v>11.5</v>
-      </c>
-      <c r="G116" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E117" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F117" s="5"/>
-      <c r="G117" s="6"/>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E118" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F118" s="1">
-        <v>11.6</v>
-      </c>
-      <c r="G118" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E119" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F119" s="5"/>
-      <c r="G119" s="6"/>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B120" s="1">
-        <v>9</v>
-      </c>
-      <c r="C120" s="1">
-        <v>12</v>
-      </c>
-      <c r="D120" t="s">
-        <v>17</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F120" s="5"/>
-      <c r="G120" s="6"/>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E121" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F121" s="1">
-        <v>12.1</v>
-      </c>
-      <c r="G121" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E122" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F122" s="1">
-        <v>12.2</v>
-      </c>
-      <c r="G122" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E123" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F123" s="1">
-        <v>12.3</v>
-      </c>
-      <c r="G123" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E124" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F124" s="1">
-        <v>12.4</v>
-      </c>
-      <c r="G124" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B125" s="1">
-        <v>10</v>
-      </c>
-      <c r="C125" s="1">
-        <v>13</v>
-      </c>
-      <c r="D125" t="s">
-        <v>18</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F125" s="1">
-        <v>13.1</v>
-      </c>
-      <c r="G125" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E126" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F126" s="1">
-        <v>13.2</v>
-      </c>
-      <c r="G126" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E127" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F127" s="1">
-        <v>13.3</v>
-      </c>
-      <c r="G127" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E128" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F128" s="1">
-        <v>13.4</v>
-      </c>
-      <c r="G128" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E129" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F129" s="5"/>
-      <c r="G129" s="6"/>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B130" s="2"/>
-      <c r="C130" s="2">
-        <f>COUNT(C6:C129)</f>
-        <v>10</v>
-      </c>
-      <c r="D130" s="3"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2">
-        <f>COUNT(F6:F129)</f>
-        <v>47</v>
-      </c>
-      <c r="G130" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9374,7 +11220,7 @@
   <dimension ref="B5:K130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10726,7 +12572,7 @@
   <dimension ref="B5:K130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
